--- a/Brain/Azure/Microsoft Azure Fundamentals/Describe Azure management and governance/Describe features and tools in Azure for governance and compliance.xlsx
+++ b/Brain/Azure/Microsoft Azure Fundamentals/Describe Azure management and governance/Describe features and tools in Azure for governance and compliance.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEE44A4-4A3A-40FB-B950-59DBADE61145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AECC44D-A080-47D2-BF3F-A6414D2A7091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="7845" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9270" yWindow="915" windowWidth="17460" windowHeight="11295" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="purpose of Microsoft Purview" sheetId="1" r:id="rId1"/>
     <sheet name="purpose of Azure Policy" sheetId="2" r:id="rId2"/>
     <sheet name="purpose of resource locks" sheetId="3" r:id="rId3"/>
     <sheet name="Service Trust portal" sheetId="4" r:id="rId4"/>
+    <sheet name="Azure government" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -322,10 +323,191 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>389562</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>94809</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4308133D-76EE-4C34-83F3-A21B29091C78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="7429500"/>
+          <a:ext cx="7704762" cy="3523809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>398543</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>142321</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5476875"/>
+          <a:ext cx="12057143" cy="4428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>141028</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>85357</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E8CED04-C6F6-7E71-4303-2357465975D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8191500"/>
+          <a:ext cx="14771428" cy="2942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>112457</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>85238</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E67A2A5-2504-3364-1484-3B090DC3D84A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="11430000"/>
+          <a:ext cx="14742857" cy="3895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -391,7 +573,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -450,6 +632,275 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>331705</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>9196</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="10239375"/>
+          <a:ext cx="13361905" cy="2628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>93486</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>37738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A08B90CC-DA0A-6827-2042-5F252D1BD619}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="10668000"/>
+          <a:ext cx="14114286" cy="2895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>493562</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>123286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{486DA505-3622-A9A6-90FB-FD83B17FD891}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="13716000"/>
+          <a:ext cx="13904762" cy="4314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>188724</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>18500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A704B69-FE02-6D4F-DF93-3908E1F9F763}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="14209524" cy="4400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>580190</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>113976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E60898F4-FF5B-1084-7DBE-83E6D2C65931}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4762500"/>
+          <a:ext cx="6676190" cy="2590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>598324</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>133095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA2917AF-CB78-6213-8240-B40C0BE9A711}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7620000"/>
+          <a:ext cx="14009524" cy="2038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -722,8 +1173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -790,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -879,6 +1330,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -886,7 +1338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -975,8 +1427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1001,4 +1453,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E9781F-0D69-4D31-848D-13E9D6C733A0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Brain/Azure/Microsoft Azure Fundamentals/Describe Azure management and governance/Describe features and tools in Azure for governance and compliance.xlsx
+++ b/Brain/Azure/Microsoft Azure Fundamentals/Describe Azure management and governance/Describe features and tools in Azure for governance and compliance.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AECC44D-A080-47D2-BF3F-A6414D2A7091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD24C46-E522-40BE-BE62-0B2EF638108E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9270" yWindow="915" windowWidth="17460" windowHeight="11295" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="purpose of Microsoft Purview" sheetId="1" r:id="rId1"/>
@@ -341,7 +341,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4308133D-76EE-4C34-83F3-A21B29091C78}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -434,7 +434,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E8CED04-C6F6-7E71-4303-2357465975D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -478,7 +478,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E67A2A5-2504-3364-1484-3B090DC3D84A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -698,7 +698,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A08B90CC-DA0A-6827-2042-5F252D1BD619}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -742,7 +742,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{486DA505-3622-A9A6-90FB-FD83B17FD891}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -760,6 +760,94 @@
         <a:xfrm>
           <a:off x="609600" y="13716000"/>
           <a:ext cx="13904762" cy="4314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>417333</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>180684</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="22860000"/>
+          <a:ext cx="14133333" cy="2323809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>198324</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>37809</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1168E90-99D7-A0DC-A569-4850ECA592C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="20383500"/>
+          <a:ext cx="13609524" cy="2323809"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -791,7 +879,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A704B69-FE02-6D4F-DF93-3908E1F9F763}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -835,7 +923,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E60898F4-FF5B-1084-7DBE-83E6D2C65931}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -879,7 +967,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA2917AF-CB78-6213-8240-B40C0BE9A711}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -897,6 +985,50 @@
         <a:xfrm>
           <a:off x="0" y="7620000"/>
           <a:ext cx="14009524" cy="2038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>179324</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>113809</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="12382500"/>
+          <a:ext cx="13209524" cy="3923809"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1427,8 +1559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1456,16 +1588,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E9781F-0D69-4D31-848D-13E9D6C733A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>